--- a/data/trans_dic/P24_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,48%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,98%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>21,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,85%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>28,52%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>14,04%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>15,43%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>21,15%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,1</t>
+          <t>6,6; 10,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,4</t>
+          <t>7,24; 12,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 11,3</t>
+          <t>6,62; 11,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,74</t>
+          <t>6,46; 10,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,41</t>
+          <t>5,21; 10,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,81</t>
+          <t>10,97; 16,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,14</t>
+          <t>9,84; 15,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 24,55</t>
+          <t>16,36; 21,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,67; 21,15</t>
+          <t>14,29; 19,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 32,04</t>
+          <t>19,09; 24,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,04</t>
+          <t>15,99; 21,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 15,31</t>
+          <t>18,3; 25,17</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,65</t>
+          <t>25,69; 32,2</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 15,46</t>
+          <t>27,15; 33,53</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>19,05; 23,32</t>
+          <t>12,31; 15,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 15,3</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 17,49</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 15,32</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 17,43</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 23,4</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 23,72</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>10,75%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>18,8%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,71%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>25,97%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>13,45%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>12,19%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>17,13%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>18,0%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,51</t>
+          <t>5,61; 11,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,93</t>
+          <t>3,04; 8,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,48</t>
+          <t>7,49; 12,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,87</t>
+          <t>5,97; 10,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,15</t>
+          <t>6,2; 12,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 22,38</t>
+          <t>7,41; 15,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,47</t>
+          <t>6,96; 14,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,59</t>
+          <t>15,68; 22,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 30,4</t>
+          <t>16,93; 24,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,09; 32,66</t>
+          <t>17,32; 23,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,21</t>
+          <t>22,57; 30,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,42</t>
+          <t>19,82; 27,48</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,09</t>
+          <t>20,51; 33,23</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 19,88</t>
+          <t>25,04; 37,59</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 21,97</t>
+          <t>11,27; 15,65</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 15,19</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 17,05</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 19,71</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 18,47</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 21,98</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 23,84</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>24,56%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>20,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,77%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,35%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,86%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>15,33%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 26,79</t>
+          <t>6,25; 26,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,34</t>
+          <t>1,57; 10,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,18</t>
+          <t>4,36; 13,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,84</t>
+          <t>0,53; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,68; 12,74</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>18,67; 31,44</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 29,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 30,28</t>
+          <t>18,55; 31,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,37; 30,46</t>
+          <t>10,83; 23,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>16,36; 29,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 29,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 29,65</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,86; 25,13</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>8,08; 17,29</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>11,54; 20,07</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 25,98</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 14,53</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 19,92</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 16,54</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 19,8</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>12,83%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>19,54%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,34%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,07%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>27,97%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>14,31%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>12,74%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>15,18%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>20,43%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,13</t>
+          <t>7,26; 11,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,76</t>
+          <t>5,54; 8,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,78</t>
+          <t>7,66; 11,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,02</t>
+          <t>6,05; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,37</t>
+          <t>6,24; 9,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 21,98</t>
+          <t>10,63; 15,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 20,74</t>
+          <t>9,68; 14,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 22,99</t>
+          <t>17,62; 22,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,64; 24,06</t>
+          <t>16,3; 20,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,19</t>
+          <t>19,17; 23,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 15,84</t>
+          <t>19,89; 24,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,16</t>
+          <t>19,85; 24,78</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 16,68</t>
+          <t>25,34; 31,02</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 16,27</t>
+          <t>27,47; 32,91</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 22,52</t>
+          <t>13,01; 15,88</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 14,28</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 16,7</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 16,45</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 16,94</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>18,55; 22,27</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>141807</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>154587</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>144182</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>136247</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>123850</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30837</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27804</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>339820</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>307771</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>399044</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>337111</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>394643</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>67852</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>70712</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>481628</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>462357</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>543225</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>473359</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>518493</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>98689</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>98516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108245; 178448</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>119731; 201724</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>108156; 191217</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>106117; 174569</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>85308; 176931</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25094; 37572</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22326; 34798</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>292991; 391648</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>258167; 361220</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>348645; 452894</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>290775; 388186</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>330558; 454594</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>61112; 76609</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>63930; 78973</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>422515; 542968</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>396228; 529237</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>473312; 605301</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>410268; 530237</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>442236; 600563</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>88669; 109190</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>89742; 109696</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>111018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66370</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>135868</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111905</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>119616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7323</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>265026</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>285035</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>275102</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>362510</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>323171</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17024</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20716</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>376043</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>351405</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>410970</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>474415</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>442787</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>24769</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>28039</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77850; 159523</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41809; 115569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>103309; 175989</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82286; 150176</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>85631; 165950</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5338; 11329</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5075; 10657</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>221106; 313517</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>235561; 345373</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>237312; 324048</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>311352; 421291</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>275318; 381806</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13448; 21788</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16668; 25017</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>315101; 437603</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>296106; 420180</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>355928; 468745</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>411102; 543721</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>371515; 511471</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>20178; 30244</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>23226; 33260</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>52076</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19443</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33454</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9343</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28534</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>101170</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68900</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>91436</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>94693</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90607</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>153245</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>88343</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>124890</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>104036</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>119141</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26425; 112426</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6627; 42787</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18319; 57058</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2220; 27878</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11073; 52705</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76402; 130560</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44604; 96129</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66523; 120700</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>70061; 122309</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59702; 122107</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>118179; 216883</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>60152; 121243</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>97878; 164737</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>75870; 137413</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>86056; 163438</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>304901</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>240400</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>313504</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>257496</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>271999</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38582</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>706016</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>661705</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>765582</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>794314</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>808421</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>84877</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>91428</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1010916</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>902105</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1079085</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1051809</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1080420</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>123459</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>126555</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>250267; 383844</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>191002; 299184</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>262985; 378578</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>208265; 304537</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>214120; 331810</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31983; 46276</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29033; 42644</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>636691; 796551</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>588317; 745310</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>690614; 838428</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>718018; 870687</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>715957; 893969</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>76904; 94138</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>82990; 99419</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>919123; 1121558</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>804372; 1008045</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>992486; 1175213</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>957307; 1159955</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>976097; 1192956</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>112064; 134546</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>115832; 138137</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
